--- a/webproject_1/main/static/gen_files/발주파일.xlsx
+++ b/webproject_1/main/static/gen_files/발주파일.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>베송비</t>
+          <t>배송비</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
